--- a/Excel/ExcelData/AttackBless.xlsx
+++ b/Excel/ExcelData/AttackBless.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,322 +36,322 @@
     <t>BlessEffect</t>
   </si>
   <si>
-    <t>Test1</t>
+    <t>A_Test1</t>
   </si>
   <si>
     <t>AttackBless</t>
   </si>
   <si>
-    <t>Test1_DES</t>
-  </si>
-  <si>
-    <t>Test1_Effect</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>Test2_DES</t>
-  </si>
-  <si>
-    <t>Test2_Effect</t>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
-    <t>Test3_DES</t>
-  </si>
-  <si>
-    <t>Test3_Effect</t>
-  </si>
-  <si>
-    <t>Test4</t>
-  </si>
-  <si>
-    <t>Test4_DES</t>
-  </si>
-  <si>
-    <t>Test4_Effect</t>
-  </si>
-  <si>
-    <t>Test5</t>
-  </si>
-  <si>
-    <t>Test5_DES</t>
-  </si>
-  <si>
-    <t>Test5_Effect</t>
-  </si>
-  <si>
-    <t>Test6</t>
-  </si>
-  <si>
-    <t>Test6_DES</t>
-  </si>
-  <si>
-    <t>Test6_Effect</t>
-  </si>
-  <si>
-    <t>Test7</t>
-  </si>
-  <si>
-    <t>Test7_DES</t>
-  </si>
-  <si>
-    <t>Test7_Effect</t>
-  </si>
-  <si>
-    <t>Test8</t>
-  </si>
-  <si>
-    <t>Test8_DES</t>
-  </si>
-  <si>
-    <t>Test8_Effect</t>
-  </si>
-  <si>
-    <t>Test9</t>
-  </si>
-  <si>
-    <t>Test9_DES</t>
-  </si>
-  <si>
-    <t>Test9_Effect</t>
-  </si>
-  <si>
-    <t>Test10</t>
-  </si>
-  <si>
-    <t>Test10_DES</t>
-  </si>
-  <si>
-    <t>Test10_Effect</t>
-  </si>
-  <si>
-    <t>Test11</t>
-  </si>
-  <si>
-    <t>Test11_DES</t>
-  </si>
-  <si>
-    <t>Test11_Effect</t>
-  </si>
-  <si>
-    <t>Test12</t>
-  </si>
-  <si>
-    <t>Test12_DES</t>
-  </si>
-  <si>
-    <t>Test12_Effect</t>
-  </si>
-  <si>
-    <t>Test13</t>
-  </si>
-  <si>
-    <t>Test13_DES</t>
-  </si>
-  <si>
-    <t>Test13_Effect</t>
-  </si>
-  <si>
-    <t>Test14</t>
-  </si>
-  <si>
-    <t>Test14_DES</t>
-  </si>
-  <si>
-    <t>Test14_Effect</t>
-  </si>
-  <si>
-    <t>Test15</t>
-  </si>
-  <si>
-    <t>Test15_DES</t>
-  </si>
-  <si>
-    <t>Test15_Effect</t>
-  </si>
-  <si>
-    <t>Test16</t>
-  </si>
-  <si>
-    <t>Test16_DES</t>
-  </si>
-  <si>
-    <t>Test16_Effect</t>
-  </si>
-  <si>
-    <t>Test17</t>
-  </si>
-  <si>
-    <t>Test17_DES</t>
-  </si>
-  <si>
-    <t>Test17_Effect</t>
-  </si>
-  <si>
-    <t>Test18</t>
-  </si>
-  <si>
-    <t>Test18_DES</t>
-  </si>
-  <si>
-    <t>Test18_Effect</t>
-  </si>
-  <si>
-    <t>Test19</t>
-  </si>
-  <si>
-    <t>Test19_DES</t>
-  </si>
-  <si>
-    <t>Test19_Effect</t>
-  </si>
-  <si>
-    <t>Test20</t>
-  </si>
-  <si>
-    <t>Test20_DES</t>
-  </si>
-  <si>
-    <t>Test20_Effect</t>
-  </si>
-  <si>
-    <t>Test21</t>
-  </si>
-  <si>
-    <t>Test21_DES</t>
-  </si>
-  <si>
-    <t>Test21_Effect</t>
-  </si>
-  <si>
-    <t>Test22</t>
-  </si>
-  <si>
-    <t>Test22_DES</t>
-  </si>
-  <si>
-    <t>Test22_Effect</t>
-  </si>
-  <si>
-    <t>Test23</t>
-  </si>
-  <si>
-    <t>Test23_DES</t>
-  </si>
-  <si>
-    <t>Test23_Effect</t>
-  </si>
-  <si>
-    <t>Test24</t>
-  </si>
-  <si>
-    <t>Test24_DES</t>
-  </si>
-  <si>
-    <t>Test24_Effect</t>
-  </si>
-  <si>
-    <t>Test25</t>
-  </si>
-  <si>
-    <t>Test25_DES</t>
-  </si>
-  <si>
-    <t>Test25_Effect</t>
-  </si>
-  <si>
-    <t>Test26</t>
-  </si>
-  <si>
-    <t>Test26_DES</t>
-  </si>
-  <si>
-    <t>Test26_Effect</t>
-  </si>
-  <si>
-    <t>Test27</t>
-  </si>
-  <si>
-    <t>Test27_DES</t>
-  </si>
-  <si>
-    <t>Test27_Effect</t>
-  </si>
-  <si>
-    <t>Test28</t>
-  </si>
-  <si>
-    <t>Test28_DES</t>
-  </si>
-  <si>
-    <t>Test28_Effect</t>
-  </si>
-  <si>
-    <t>Test29</t>
-  </si>
-  <si>
-    <t>Test29_DES</t>
-  </si>
-  <si>
-    <t>Test29_Effect</t>
-  </si>
-  <si>
-    <t>Test30</t>
-  </si>
-  <si>
-    <t>Test30_DES</t>
-  </si>
-  <si>
-    <t>Test30_Effect</t>
-  </si>
-  <si>
-    <t>Test31</t>
-  </si>
-  <si>
-    <t>Test31_DES</t>
-  </si>
-  <si>
-    <t>Test31_Effect</t>
-  </si>
-  <si>
-    <t>Test32</t>
-  </si>
-  <si>
-    <t>Test32_DES</t>
-  </si>
-  <si>
-    <t>Test32_Effect</t>
-  </si>
-  <si>
-    <t>Test33</t>
-  </si>
-  <si>
-    <t>Test33_DES</t>
-  </si>
-  <si>
-    <t>Test33_Effect</t>
-  </si>
-  <si>
-    <t>Test34</t>
-  </si>
-  <si>
-    <t>Test34_DES</t>
-  </si>
-  <si>
-    <t>Test34_Effect</t>
-  </si>
-  <si>
-    <t>Test35</t>
-  </si>
-  <si>
-    <t>Test35_DES</t>
-  </si>
-  <si>
-    <t>Test35_Effect</t>
+    <t>A_Test1_DES</t>
+  </si>
+  <si>
+    <t>A_Test1_Effect</t>
+  </si>
+  <si>
+    <t>A_Test2</t>
+  </si>
+  <si>
+    <t>A_Test2_DES</t>
+  </si>
+  <si>
+    <t>A_Test2_Effect</t>
+  </si>
+  <si>
+    <t>A_Test3</t>
+  </si>
+  <si>
+    <t>A_Test3_DES</t>
+  </si>
+  <si>
+    <t>A_Test3_Effect</t>
+  </si>
+  <si>
+    <t>A_Test4</t>
+  </si>
+  <si>
+    <t>A_Test4_DES</t>
+  </si>
+  <si>
+    <t>A_Test4_Effect</t>
+  </si>
+  <si>
+    <t>A_Test5</t>
+  </si>
+  <si>
+    <t>A_Test5_DES</t>
+  </si>
+  <si>
+    <t>A_Test5_Effect</t>
+  </si>
+  <si>
+    <t>A_Test6</t>
+  </si>
+  <si>
+    <t>A_Test6_DES</t>
+  </si>
+  <si>
+    <t>A_Test6_Effect</t>
+  </si>
+  <si>
+    <t>A_Test7</t>
+  </si>
+  <si>
+    <t>A_Test7_DES</t>
+  </si>
+  <si>
+    <t>A_Test7_Effect</t>
+  </si>
+  <si>
+    <t>A_Test8</t>
+  </si>
+  <si>
+    <t>A_Test8_DES</t>
+  </si>
+  <si>
+    <t>A_Test8_Effect</t>
+  </si>
+  <si>
+    <t>A_Test9</t>
+  </si>
+  <si>
+    <t>A_Test9_DES</t>
+  </si>
+  <si>
+    <t>A_Test9_Effect</t>
+  </si>
+  <si>
+    <t>A_Test10</t>
+  </si>
+  <si>
+    <t>A_Test10_DES</t>
+  </si>
+  <si>
+    <t>A_Test10_Effect</t>
+  </si>
+  <si>
+    <t>A_Test11</t>
+  </si>
+  <si>
+    <t>A_Test11_DES</t>
+  </si>
+  <si>
+    <t>A_Test11_Effect</t>
+  </si>
+  <si>
+    <t>A_Test12</t>
+  </si>
+  <si>
+    <t>A_Test12_DES</t>
+  </si>
+  <si>
+    <t>A_Test12_Effect</t>
+  </si>
+  <si>
+    <t>A_Test13</t>
+  </si>
+  <si>
+    <t>A_Test13_DES</t>
+  </si>
+  <si>
+    <t>A_Test13_Effect</t>
+  </si>
+  <si>
+    <t>A_Test14</t>
+  </si>
+  <si>
+    <t>A_Test14_DES</t>
+  </si>
+  <si>
+    <t>A_Test14_Effect</t>
+  </si>
+  <si>
+    <t>A_Test15</t>
+  </si>
+  <si>
+    <t>A_Test15_DES</t>
+  </si>
+  <si>
+    <t>A_Test15_Effect</t>
+  </si>
+  <si>
+    <t>A_Test16</t>
+  </si>
+  <si>
+    <t>A_Test16_DES</t>
+  </si>
+  <si>
+    <t>A_Test16_Effect</t>
+  </si>
+  <si>
+    <t>A_Test17</t>
+  </si>
+  <si>
+    <t>A_Test17_DES</t>
+  </si>
+  <si>
+    <t>A_Test17_Effect</t>
+  </si>
+  <si>
+    <t>A_Test18</t>
+  </si>
+  <si>
+    <t>A_Test18_DES</t>
+  </si>
+  <si>
+    <t>A_Test18_Effect</t>
+  </si>
+  <si>
+    <t>A_Test19</t>
+  </si>
+  <si>
+    <t>A_Test19_DES</t>
+  </si>
+  <si>
+    <t>A_Test19_Effect</t>
+  </si>
+  <si>
+    <t>A_Test20</t>
+  </si>
+  <si>
+    <t>A_Test20_DES</t>
+  </si>
+  <si>
+    <t>A_Test20_Effect</t>
+  </si>
+  <si>
+    <t>A_Test21</t>
+  </si>
+  <si>
+    <t>A_Test21_DES</t>
+  </si>
+  <si>
+    <t>A_Test21_Effect</t>
+  </si>
+  <si>
+    <t>A_Test22</t>
+  </si>
+  <si>
+    <t>A_Test22_DES</t>
+  </si>
+  <si>
+    <t>A_Test22_Effect</t>
+  </si>
+  <si>
+    <t>A_Test23</t>
+  </si>
+  <si>
+    <t>A_Test23_DES</t>
+  </si>
+  <si>
+    <t>A_Test23_Effect</t>
+  </si>
+  <si>
+    <t>A_Test24</t>
+  </si>
+  <si>
+    <t>A_Test24_DES</t>
+  </si>
+  <si>
+    <t>A_Test24_Effect</t>
+  </si>
+  <si>
+    <t>A_Test25</t>
+  </si>
+  <si>
+    <t>A_Test25_DES</t>
+  </si>
+  <si>
+    <t>A_Test25_Effect</t>
+  </si>
+  <si>
+    <t>A_Test26</t>
+  </si>
+  <si>
+    <t>A_Test26_DES</t>
+  </si>
+  <si>
+    <t>A_Test26_Effect</t>
+  </si>
+  <si>
+    <t>A_Test27</t>
+  </si>
+  <si>
+    <t>A_Test27_DES</t>
+  </si>
+  <si>
+    <t>A_Test27_Effect</t>
+  </si>
+  <si>
+    <t>A_Test28</t>
+  </si>
+  <si>
+    <t>A_Test28_DES</t>
+  </si>
+  <si>
+    <t>A_Test28_Effect</t>
+  </si>
+  <si>
+    <t>A_Test29</t>
+  </si>
+  <si>
+    <t>A_Test29_DES</t>
+  </si>
+  <si>
+    <t>A_Test29_Effect</t>
+  </si>
+  <si>
+    <t>A_Test30</t>
+  </si>
+  <si>
+    <t>A_Test30_DES</t>
+  </si>
+  <si>
+    <t>A_Test30_Effect</t>
+  </si>
+  <si>
+    <t>A_Test31</t>
+  </si>
+  <si>
+    <t>A_Test31_DES</t>
+  </si>
+  <si>
+    <t>A_Test31_Effect</t>
+  </si>
+  <si>
+    <t>A_Test32</t>
+  </si>
+  <si>
+    <t>A_Test32_DES</t>
+  </si>
+  <si>
+    <t>A_Test32_Effect</t>
+  </si>
+  <si>
+    <t>A_Test33</t>
+  </si>
+  <si>
+    <t>A_Test33_DES</t>
+  </si>
+  <si>
+    <t>A_Test33_Effect</t>
+  </si>
+  <si>
+    <t>A_Test34</t>
+  </si>
+  <si>
+    <t>A_Test34_DES</t>
+  </si>
+  <si>
+    <t>A_Test34_Effect</t>
+  </si>
+  <si>
+    <t>A_Test35</t>
+  </si>
+  <si>
+    <t>A_Test35_DES</t>
+  </si>
+  <si>
+    <t>A_Test35_Effect</t>
   </si>
 </sst>
 </file>
@@ -1288,7 +1288,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/Excel/ExcelData/AttackBless.xlsx
+++ b/Excel/ExcelData/AttackBless.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>BlessEffect</t>
+  </si>
+  <si>
+    <t>BlessBuff</t>
   </si>
   <si>
     <t>A_Test1</t>
@@ -1285,18 +1288,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="6" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1314,6 +1317,9 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1321,17 +1327,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1339,17 +1345,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1357,17 +1363,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1375,17 +1381,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1393,17 +1399,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1411,17 +1417,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1429,17 +1435,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1447,17 +1453,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1465,17 +1471,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1483,17 +1489,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1501,17 +1507,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1519,17 +1525,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1537,17 +1543,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1555,17 +1561,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1573,17 +1579,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1591,17 +1597,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1609,17 +1615,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1627,17 +1633,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1645,17 +1651,17 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1663,17 +1669,17 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1681,17 +1687,17 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1699,17 +1705,17 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1717,17 +1723,17 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1735,17 +1741,17 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1753,17 +1759,17 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1771,17 +1777,17 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1789,17 +1795,17 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1807,17 +1813,17 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1825,17 +1831,17 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1843,17 +1849,17 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1861,17 +1867,17 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1879,17 +1885,17 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1897,17 +1903,17 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1915,17 +1921,17 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1933,17 +1939,17 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/ExcelData/AttackBless.xlsx
+++ b/Excel/ExcelData/AttackBless.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -67,294 +67,6 @@
   </si>
   <si>
     <t>A_Test3_Effect</t>
-  </si>
-  <si>
-    <t>A_Test4</t>
-  </si>
-  <si>
-    <t>A_Test4_DES</t>
-  </si>
-  <si>
-    <t>A_Test4_Effect</t>
-  </si>
-  <si>
-    <t>A_Test5</t>
-  </si>
-  <si>
-    <t>A_Test5_DES</t>
-  </si>
-  <si>
-    <t>A_Test5_Effect</t>
-  </si>
-  <si>
-    <t>A_Test6</t>
-  </si>
-  <si>
-    <t>A_Test6_DES</t>
-  </si>
-  <si>
-    <t>A_Test6_Effect</t>
-  </si>
-  <si>
-    <t>A_Test7</t>
-  </si>
-  <si>
-    <t>A_Test7_DES</t>
-  </si>
-  <si>
-    <t>A_Test7_Effect</t>
-  </si>
-  <si>
-    <t>A_Test8</t>
-  </si>
-  <si>
-    <t>A_Test8_DES</t>
-  </si>
-  <si>
-    <t>A_Test8_Effect</t>
-  </si>
-  <si>
-    <t>A_Test9</t>
-  </si>
-  <si>
-    <t>A_Test9_DES</t>
-  </si>
-  <si>
-    <t>A_Test9_Effect</t>
-  </si>
-  <si>
-    <t>A_Test10</t>
-  </si>
-  <si>
-    <t>A_Test10_DES</t>
-  </si>
-  <si>
-    <t>A_Test10_Effect</t>
-  </si>
-  <si>
-    <t>A_Test11</t>
-  </si>
-  <si>
-    <t>A_Test11_DES</t>
-  </si>
-  <si>
-    <t>A_Test11_Effect</t>
-  </si>
-  <si>
-    <t>A_Test12</t>
-  </si>
-  <si>
-    <t>A_Test12_DES</t>
-  </si>
-  <si>
-    <t>A_Test12_Effect</t>
-  </si>
-  <si>
-    <t>A_Test13</t>
-  </si>
-  <si>
-    <t>A_Test13_DES</t>
-  </si>
-  <si>
-    <t>A_Test13_Effect</t>
-  </si>
-  <si>
-    <t>A_Test14</t>
-  </si>
-  <si>
-    <t>A_Test14_DES</t>
-  </si>
-  <si>
-    <t>A_Test14_Effect</t>
-  </si>
-  <si>
-    <t>A_Test15</t>
-  </si>
-  <si>
-    <t>A_Test15_DES</t>
-  </si>
-  <si>
-    <t>A_Test15_Effect</t>
-  </si>
-  <si>
-    <t>A_Test16</t>
-  </si>
-  <si>
-    <t>A_Test16_DES</t>
-  </si>
-  <si>
-    <t>A_Test16_Effect</t>
-  </si>
-  <si>
-    <t>A_Test17</t>
-  </si>
-  <si>
-    <t>A_Test17_DES</t>
-  </si>
-  <si>
-    <t>A_Test17_Effect</t>
-  </si>
-  <si>
-    <t>A_Test18</t>
-  </si>
-  <si>
-    <t>A_Test18_DES</t>
-  </si>
-  <si>
-    <t>A_Test18_Effect</t>
-  </si>
-  <si>
-    <t>A_Test19</t>
-  </si>
-  <si>
-    <t>A_Test19_DES</t>
-  </si>
-  <si>
-    <t>A_Test19_Effect</t>
-  </si>
-  <si>
-    <t>A_Test20</t>
-  </si>
-  <si>
-    <t>A_Test20_DES</t>
-  </si>
-  <si>
-    <t>A_Test20_Effect</t>
-  </si>
-  <si>
-    <t>A_Test21</t>
-  </si>
-  <si>
-    <t>A_Test21_DES</t>
-  </si>
-  <si>
-    <t>A_Test21_Effect</t>
-  </si>
-  <si>
-    <t>A_Test22</t>
-  </si>
-  <si>
-    <t>A_Test22_DES</t>
-  </si>
-  <si>
-    <t>A_Test22_Effect</t>
-  </si>
-  <si>
-    <t>A_Test23</t>
-  </si>
-  <si>
-    <t>A_Test23_DES</t>
-  </si>
-  <si>
-    <t>A_Test23_Effect</t>
-  </si>
-  <si>
-    <t>A_Test24</t>
-  </si>
-  <si>
-    <t>A_Test24_DES</t>
-  </si>
-  <si>
-    <t>A_Test24_Effect</t>
-  </si>
-  <si>
-    <t>A_Test25</t>
-  </si>
-  <si>
-    <t>A_Test25_DES</t>
-  </si>
-  <si>
-    <t>A_Test25_Effect</t>
-  </si>
-  <si>
-    <t>A_Test26</t>
-  </si>
-  <si>
-    <t>A_Test26_DES</t>
-  </si>
-  <si>
-    <t>A_Test26_Effect</t>
-  </si>
-  <si>
-    <t>A_Test27</t>
-  </si>
-  <si>
-    <t>A_Test27_DES</t>
-  </si>
-  <si>
-    <t>A_Test27_Effect</t>
-  </si>
-  <si>
-    <t>A_Test28</t>
-  </si>
-  <si>
-    <t>A_Test28_DES</t>
-  </si>
-  <si>
-    <t>A_Test28_Effect</t>
-  </si>
-  <si>
-    <t>A_Test29</t>
-  </si>
-  <si>
-    <t>A_Test29_DES</t>
-  </si>
-  <si>
-    <t>A_Test29_Effect</t>
-  </si>
-  <si>
-    <t>A_Test30</t>
-  </si>
-  <si>
-    <t>A_Test30_DES</t>
-  </si>
-  <si>
-    <t>A_Test30_Effect</t>
-  </si>
-  <si>
-    <t>A_Test31</t>
-  </si>
-  <si>
-    <t>A_Test31_DES</t>
-  </si>
-  <si>
-    <t>A_Test31_Effect</t>
-  </si>
-  <si>
-    <t>A_Test32</t>
-  </si>
-  <si>
-    <t>A_Test32_DES</t>
-  </si>
-  <si>
-    <t>A_Test32_Effect</t>
-  </si>
-  <si>
-    <t>A_Test33</t>
-  </si>
-  <si>
-    <t>A_Test33_DES</t>
-  </si>
-  <si>
-    <t>A_Test33_Effect</t>
-  </si>
-  <si>
-    <t>A_Test34</t>
-  </si>
-  <si>
-    <t>A_Test34_DES</t>
-  </si>
-  <si>
-    <t>A_Test34_Effect</t>
-  </si>
-  <si>
-    <t>A_Test35</t>
-  </si>
-  <si>
-    <t>A_Test35_DES</t>
-  </si>
-  <si>
-    <t>A_Test35_Effect</t>
   </si>
 </sst>
 </file>
@@ -1291,7 +1003,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1377,580 +1089,260 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
